--- a/result_data_x.xlsx
+++ b/result_data_x.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q141"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,7 +541,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Michael Oppersma</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>['motivated']</t>
+          <t>['environment', 'motivated']</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GREGORY BLIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jean LECRIQUE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -700,34 +700,39 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Globalement (très) positif mais il reste des points à travailler:
+- des "résistances" et déséquilibres dans l'équipe
+- parfois difficile de trouver sa place (organisation matricielle vs leadership BU)
+- les perspectives à moyen et long terme à valider par le groupe</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>-1</v>
       </c>
       <c r="O4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['équipe', 'long']</t>
         </is>
       </c>
     </row>
@@ -748,7 +753,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arnaud ROCHARD</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -796,7 +801,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>['entreprise', 'dynamique', 'satisfaction', 'client']</t>
+          <t>['entreprise', 'dynamique', 'satisfaction', 'client', 'long']</t>
         </is>
       </c>
     </row>
@@ -817,7 +822,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Jean-Marc SPANGHERO</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -836,34 +841,36 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Une fantastique équipe au sein de la BU Foodservice, mais dans un environnement Moy Park Ltd qui rend parfois les choses compliquées et administratives</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['équipe', 'chose']</t>
         </is>
       </c>
     </row>
@@ -884,7 +891,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ESTELLE RABOURDIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -953,7 +960,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jorida DRAGUSHA</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1001,7 +1008,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>['company']</t>
+          <t>['environment', 'company']</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1029,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Andrew Douglas</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1070,7 +1077,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>['communication', 'communication', 'company']</t>
+          <t>['communication', 'communication', 'key', 'company']</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1098,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Chris Warner</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1139,7 +1146,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>['company', 'company']</t>
+          <t>['company', 'company', 'team']</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1167,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Charlotte Crowther</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1229,7 +1236,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Grace Lauder</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1277,7 +1284,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['team']</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1305,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ian Hempsall</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1346,7 +1353,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>['challenge']</t>
+          <t>['day', 'challenge']</t>
         </is>
       </c>
     </row>
@@ -1367,17 +1374,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ian Hyland</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Grantham</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1386,29 +1393,31 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Performance et excellence</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1434,7 +1443,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Olivier BILLAUT</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1453,34 +1462,36 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>société en pleine mutation ou je trouve de la diversité et des challenges ( pas toujours simple )</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['société', 'challenge', 'simple']</t>
         </is>
       </c>
     </row>
@@ -1501,7 +1512,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Antoine CHERON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1520,34 +1531,36 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>une entreprise avec une bonne dynamique avec beaucoup des progets</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['entreprise', 'bon', 'dynamique']</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1581,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Charles DERLY</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1587,27 +1600,27 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>société en pleine mutation ou je trouve de la diversité et des challenges ( pas toujours simple )</t>
+          <t>l'amélioration des conditions de travail et les moyens mis en œuvre</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1616,7 +1629,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>['société', 'challenge', 'simple']</t>
+          <t>['travail']</t>
         </is>
       </c>
     </row>
@@ -1637,12 +1650,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Didier DUPUIS</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1656,27 +1669,28 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>une entreprise avec une bonne dynamique avec beaucoup des progets</t>
+          <t>Pas de pression, management accessible, relations simples et professionnelles 
+Toutefois un manque d’organisation ou de cohérence parfois mais qui tend à s’améliorer</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1685,7 +1699,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>['entreprise', 'bon', 'dynamique']</t>
+          <t>['relation', 'simple']</t>
         </is>
       </c>
     </row>
@@ -1706,12 +1720,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>José JAROSZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1728,21 +1742,21 @@
         <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>l'amélioration des conditions de travail et les moyens mis en œuvre</t>
+          <t>Le cadre, l'ambiance et le rapport avec la direction</t>
         </is>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1754,7 +1768,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>['travail']</t>
+          <t>['ambiance']</t>
         </is>
       </c>
     </row>
@@ -1775,12 +1789,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ludovic MASSET</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1794,28 +1808,27 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Pas de pression, management accessible, relations simples et professionnelles 
-Toutefois un manque d’organisation ou de cohérence parfois mais qui tend à s’améliorer</t>
+          <t>RAS</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -1824,7 +1837,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>['relation', 'simple']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1845,12 +1858,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sylvie RAMON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1864,24 +1877,24 @@
         </is>
       </c>
       <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
         <v>8</v>
       </c>
-      <c r="J21" t="n">
-        <v>9</v>
-      </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Le cadre, l'ambiance et le rapport avec la direction</t>
+          <t>Bon esprit d'équipe :)</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1893,7 +1906,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>['ambiance']</t>
+          <t>['équipe']</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1927,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>David HEISCHLING</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1933,27 +1946,27 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>RAS</t>
+          <t>J'aime mon entreprise.</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1962,7 +1975,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['entreprise']</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1996,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Dominique DESPREZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2005,33 +2018,29 @@
         <v>9</v>
       </c>
       <c r="J23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Bon esprit d'équipe :)</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>['équipe']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2061,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sylvie THILLIEZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2071,36 +2080,38 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>J'aime mon entreprise.</t>
+          <t>I am really happy working for MP. 
+Clear annual objectives given.
+Happy to work and develop MP</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>['entreprise']</t>
+          <t>['happy', 'happy']</t>
         </is>
       </c>
     </row>
@@ -2121,12 +2132,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rémi HUCHEZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2140,147 +2151,15 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>9</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Elodie COUVREUR</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>HENIN BEAUMONT</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Jean-Francois DEBACKER</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>HENIN BEAUMONT</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9</v>
-      </c>
-      <c r="K27" t="n">
         <v>2</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Entreprise de renommée mondiale
 La sécurité des personnes et des produits est notre priorité
@@ -2289,14 +2168,155 @@
 Communication régulière sur les différents aspects de la vie de l'entreprise , à tous les niveaux ( local, Europe, monde)</t>
         </is>
       </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>['entreprise', 'personne', 'produit', 'communication', 'entreprise', 'niveau']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HENIN BEAUMONT</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Points positifs qui ont motivé la bonne notation:
+La structure hiérarchique courte
+Le côté humain de la division FS. Même si nos métiers sont très challengeants, notre structure reste à dimension humaine et on sent la direction à l'écoute.</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>['bon', 'division']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>IS</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HENIN BEAUMONT</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Très peu de reconnaissance dans les capacités et du travail.
+L'évolutions des systèmes et des besoins</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2305,7 +2325,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>['entreprise', 'personne', 'produit', 'communication', 'entreprise', 'niveau']</t>
+          <t>['reconnaissance', 'travail', 'évolution']</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2346,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Matthieu MEURISSE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2341,27 +2361,25 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
         <v>1</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Points positifs qui ont motivé la bonne notation:
-La structure hiérarchique courte
-Le côté humain de la division FS. Même si nos métiers sont très challengeants, notre structure reste à dimension humaine et on sent la direction à l'écoute.</t>
+          <t>L'entreprise après des années difficiles, a abordé sa phase de renouvellement et de développement en changeant son outil de production et investissant dans de nouveaux process. Les services indirects bénéficient également de ce changement. Les résultats s'en ressentent, l'activité et l'ambiance aussi. Dynamisme, réactivité et modernité permettront de poursuivre ces efforts</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2376,7 +2394,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>['bon', 'division']</t>
+          <t>['entreprise', 'année', 'service', 'ambiance']</t>
         </is>
       </c>
     </row>
@@ -2397,12 +2415,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Frédéric YARD</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2412,32 +2430,32 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Très peu de reconnaissance dans les capacités et du travail.
-L'évolutions des systèmes et des besoins</t>
+          <t>Métier/poste apprécié mais pas toujours évident contexte/reconnaissance
+Adhésion aux valeurs/stratégies entreprise voulues</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2446,7 +2464,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>['reconnaissance', 'travail', 'évolution']</t>
+          <t>['reconnaissance', 'valeur']</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2485,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Damien BRACAVAL</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2486,17 +2504,17 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
         <v>1</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>L'entreprise après des années difficiles, a abordé sa phase de renouvellement et de développement en changeant son outil de production et investissant dans de nouveaux process. Les services indirects bénéficient également de ce changement. Les résultats s'en ressentent, l'activité et l'ambiance aussi. Dynamisme, réactivité et modernité permettront de poursuivre ces efforts</t>
+          <t>Point de vu global sur les conditions de travail (ambiance, matériel dispo, locaux, organisationnel, hierarchique...), les valeurs de l'entreprise...</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -2515,7 +2533,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>['entreprise', 'année', 'service', 'ambiance']</t>
+          <t>['travail', 'ambiance', 'valeur', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2554,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Fanny PERARD</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2551,32 +2569,32 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Métier/poste apprécié mais pas toujours évident contexte/reconnaissance
-Adhésion aux valeurs/stratégies entreprise voulues</t>
+          <t>Conditions de travail challengeantes, et conviviale
+Charge de travail intense</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -2585,7 +2603,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>['reconnaissance', 'valeur']</t>
+          <t>['travail', 'travail']</t>
         </is>
       </c>
     </row>
@@ -2606,12 +2624,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Grégory BARBIAUX</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2621,7 +2639,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2635,7 +2653,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Point de vu global sur les conditions de travail (ambiance, matériel dispo, locaux, organisationnel, hierarchique...), les valeurs de l'entreprise...</t>
+          <t>C est une entreprise qui continue d évoluer , des investissements conséquents, c est une entreprise qui prend en compte les conditions de travail.</t>
         </is>
       </c>
       <c r="M32" t="n">
@@ -2654,7 +2672,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>['travail', 'ambiance', 'valeur', 'entreprise']</t>
+          <t>['entreprise', 'entreprise', 'travail']</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2693,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Adrien GAEREMYNCK</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2697,34 +2715,35 @@
         <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Conditions de travail challengeantes, et conviviale
-Charge de travail intense</t>
+          <t>Team works and values
+Means to work in good conditions
+Long term strategy</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>['travail', 'travail']</t>
+          <t>['team', 'long']</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2764,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jean-Paul PLAQUIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2767,14 +2786,14 @@
         <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C est une entreprise qui continue d évoluer , des investissements conséquents, c est une entreprise qui prend en compte les conditions de travail.</t>
+          <t>Le potentiel d'évolution que l'entreprise propose, la liberté d'action au sein de son périmètre.</t>
         </is>
       </c>
       <c r="M34" t="n">
@@ -2793,7 +2812,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>['entreprise', 'entreprise', 'travail']</t>
+          <t>['évolution', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2833,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Antoine CORNETTE DE SAINT CY</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2833,23 +2852,23 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Team works and values
-Means to work in good conditions
-Long term strategy</t>
+          <t>Les points forts :d'abord l'équipe d'Hénin au sein de laquelle il est plaisant de travailler : responsabilisation, challenge, écoute, etc.
+Ensuite, le contexte de projets, d'investissement, d'évolution  est très dynamisant.
+Le bémol pour moi vient de l'uniformisation/standardisation un peu trop top/down et bureaucratique venant du groupe, on y perd son âme, on devient des "yes men"</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2859,12 +2878,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['équipe', 'challenge', 'évolution']</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2904,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Alexandre NEUHEUSSLER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2904,21 +2923,21 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J36" t="n">
         <v>7</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Le potentiel d'évolution que l'entreprise propose, la liberté d'action au sein de son périmètre.</t>
+          <t>Mon attachement a l'entreprise qui a sue me faire confiance depuis toutes c'est année. Ma détermination a réaliser au mieux les missions qui me sont données</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2933,7 +2952,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>['évolution', 'entreprise']</t>
+          <t>['entreprise', 'année']</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2973,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jérémy AMIGO</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2983,9 +3002,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Les points forts :d'abord l'équipe d'Hénin au sein de laquelle il est plaisant de travailler : responsabilisation, challenge, écoute, etc.
-Ensuite, le contexte de projets, d'investissement, d'évolution  est très dynamisant.
-Le bémol pour moi vient de l'uniformisation/standardisation un peu trop top/down et bureaucratique venant du groupe, on y perd son âme, on devient des "yes men"</t>
+          <t>cohésion d'équipe au sein de l'entreprise, personnel soudé dans la difficulté</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -3004,7 +3021,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>['équipe', 'challenge', 'évolution']</t>
+          <t>['équipe', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3042,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Alexandre BOUVEUR</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3044,21 +3061,21 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
         <v>7</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Mon attachement a l'entreprise qui a sue me faire confiance depuis toutes c'est année. Ma détermination a réaliser au mieux les missions qui me sont données</t>
+          <t>Ambiance de travail général</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3073,7 +3090,7 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>['entreprise', 'année']</t>
+          <t>['ambiance', 'travail']</t>
         </is>
       </c>
     </row>
@@ -3094,7 +3111,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Aline CARPENTIER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3119,11 +3136,11 @@
         <v>8</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>cohésion d'équipe au sein de l'entreprise, personnel soudé dans la difficulté</t>
+          <t>Conditions de travail, écouté , résultats positifs</t>
         </is>
       </c>
       <c r="M39" t="n">
@@ -3142,7 +3159,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>['équipe', 'entreprise']</t>
+          <t>['travail']</t>
         </is>
       </c>
     </row>
@@ -3163,7 +3180,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Kéo DELAUTRE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3182,17 +3199,19 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Ambiance de travail général</t>
+          <t>Compétences
+management 
+état  d'esprit</t>
         </is>
       </c>
       <c r="M40" t="n">
@@ -3211,7 +3230,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>['ambiance', 'travail']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3232,12 +3251,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Tony LOUCHEZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3251,21 +3270,21 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Conditions de travail, écouté , résultats positifs</t>
+          <t>L' evolution de l'entreprise ces dernières années, mon travail au quotidien, les relations avec les autres</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3280,7 +3299,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>['travail']</t>
+          <t>['entreprise', 'année', 'travail', 'relation']</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3320,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jean LUDOVIC</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3320,29 +3339,27 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Compétences
-management 
-état  d'esprit</t>
+          <t>MoyPark est une bonne entreprise</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -3351,7 +3368,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bon', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -3372,12 +3389,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cécile WAREMBOURG</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3394,14 +3411,14 @@
         <v>9</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>L' evolution de l'entreprise ces dernières années, mon travail au quotidien, les relations avec les autres</t>
+          <t>Les conditions de travail dont l'ambiance de travail.</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -3420,7 +3437,7 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>['entreprise', 'année', 'travail', 'relation']</t>
+          <t>['travail', 'ambiance', 'travail']</t>
         </is>
       </c>
     </row>
@@ -3441,12 +3458,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jean-Louis HOUPLAIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3460,27 +3477,27 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>MoyPark est une bonne entreprise</t>
+          <t>Les 12 derniers mois qui ont été difficiles pour tous et le niveau d'exigeance qui augmente sans cesse</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -3489,7 +3506,7 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>['bon', 'entreprise']</t>
+          <t>['niveau']</t>
         </is>
       </c>
     </row>
@@ -3510,12 +3527,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Thierry RADLINSKI</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3529,34 +3546,36 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Valeurs de l'entreprise / esprit d'équipe / challenge</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['valeur', 'entreprise', 'équipe', 'challenge']</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3596,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mathieu NOYER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3599,14 +3618,14 @@
         <v>9</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Les conditions de travail dont l'ambiance de travail.</t>
+          <t>Une structure qui a su évoluer et progresser avec les années grâce à sa réactivité.</t>
         </is>
       </c>
       <c r="M46" t="n">
@@ -3625,7 +3644,7 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>['travail', 'ambiance', 'travail']</t>
+          <t>['année']</t>
         </is>
       </c>
     </row>
@@ -3646,7 +3665,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>France BEAUVAIS</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3665,19 +3684,21 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>bon esprit d'équipe</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>-1</v>
@@ -3687,12 +3708,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bon', 'équipe']</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3734,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Laurie BEGARD</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3732,34 +3753,36 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>5</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>L'évolution permanente de l'entreprise me permettent également d'évoluer dans mon poste et dans mes différentes taches et ce depuis des années.</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['évolution', 'entreprise', 'année']</t>
         </is>
       </c>
     </row>
@@ -3780,7 +3803,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Elise CHOQUET</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3799,17 +3822,17 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Une structure qui a su évoluer et progresser avec les années grâce à sa réactivité.</t>
+          <t>c'est une entreprise qui offre la possibilité d'évolution a ceux qui se donnent la peine et le désir de s'investir,</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -3819,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -3828,7 +3851,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>['année']</t>
+          <t>['entreprise', 'évolution']</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3872,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Louise CLERMONT</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3868,34 +3891,38 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bonne communication avec tous les services ainsi que notre direction 
+Les moyens mis en œuvre pour réussir  (achat de nouvelle machine…)
+La fierté de travailler dans une entreprise aussi renommer en agro alimentaire</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bon', 'communication', 'service', 'fierté', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3943,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sabine DEFACHE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3935,27 +3962,28 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>L'évolution permanente de l'entreprise me permettent également d'évoluer dans mon poste et dans mes différentes taches et ce depuis des années.</t>
+          <t>Les évolutions et changements depuis plus de 20 années de présence.
+Le contexte actuel</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -3964,7 +3992,7 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>['évolution', 'entreprise', 'année']</t>
+          <t>['évolution', 'année']</t>
         </is>
       </c>
     </row>
@@ -3985,7 +4013,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Olivier LAGUILLIEZ</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4007,14 +4035,16 @@
         <v>10</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>c'est une entreprise qui offre la possibilité d'évolution a ceux qui se donnent la peine et le désir de s'investir,</t>
+          <t>29 ans chez Moy park 
+L équipe en général 
+La position de Moy park a aujourd hui et ses resultats</t>
         </is>
       </c>
       <c r="M52" t="n">
@@ -4024,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -4033,7 +4063,7 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>['entreprise', 'évolution']</t>
+          <t>['équipe']</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4084,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Laurence PAUWELS</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4073,29 +4103,27 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Bonne communication avec tous les services ainsi que notre direction 
-Les moyens mis en œuvre pour réussir  (achat de nouvelle machine…)
-La fierté de travailler dans une entreprise aussi renommer en agro alimentaire</t>
+          <t>travail au quotidien</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -4104,7 +4132,7 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>['bon', 'communication', 'service', 'fierté', 'entreprise']</t>
+          <t>['travail']</t>
         </is>
       </c>
     </row>
@@ -4125,12 +4153,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>David VANDOMME</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4140,32 +4168,32 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Les évolutions et changements depuis plus de 20 années de présence.
-Le contexte actuel</t>
+          <t>Le travail est professionnel et agréable au sein des équipes locales.
+Il est parfois a regretter un maqnue de communication/partage, tant au niveau local que du board</t>
         </is>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -4174,7 +4202,7 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>['évolution', 'année']</t>
+          <t>['travail', 'équipe', 'communication', 'niveau']</t>
         </is>
       </c>
     </row>
@@ -4195,12 +4223,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Laurent GRIBEAUVAL</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4214,19 +4242,17 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
         <v>7</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>29 ans chez Moy park 
-L équipe en général 
-La position de Moy park a aujourd hui et ses resultats</t>
+          <t>Facilité à travailler - score serait plus élevé si communications plus facile avec le site de Grantham par exemple.</t>
         </is>
       </c>
       <c r="M55" t="n">
@@ -4245,7 +4271,7 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>['équipe']</t>
+          <t>['communication']</t>
         </is>
       </c>
     </row>
@@ -4266,26 +4292,26 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cyrielle LENGLET</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>6</v>
@@ -4295,7 +4321,7 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>travail au quotidien</t>
+          <t>Engagement top down</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -4305,16 +4331,16 @@
         <v>-1</v>
       </c>
       <c r="O56" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>['travail']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4361,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Karine GACON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4345,46 +4371,45 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Le travail est professionnel et agréable au sein des équipes locales.
-Il est parfois a regretter un maqnue de communication/partage, tant au niveau local que du board</t>
+          <t>Moy Park is diverse in terms of business and function opportunities which is attractive for any professional in agri and food sector.</t>
         </is>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>['travail', 'équipe', 'communication', 'niveau']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4405,7 +4430,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Jane PLEY</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4415,30 +4440,30 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
         <v>7</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Facilité à travailler - score serait plus élevé si communications plus facile avec le site de Grantham par exemple.</t>
+          <t>my personal experiences working with site teams and mangers</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -4448,12 +4473,12 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>['communication']</t>
+          <t>['team']</t>
         </is>
       </c>
     </row>
@@ -4474,55 +4499,55 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Tristan Baddeley</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>CENTRAL EXEC</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MBO</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
         <v>8</v>
       </c>
-      <c r="J59" t="n">
-        <v>6</v>
-      </c>
       <c r="K59" t="n">
         <v>1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Engagement top down</t>
+          <t>L'ambiance de travail entre les membres du personnel, la qualité de l'environnement de travail.  Reste un point "noir": celui de la communication avec la direction mais cela ne concerne que moi.</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ambiance', 'travail', 'qualité', 'travail', 'communication']</t>
         </is>
       </c>
     </row>
@@ -4543,17 +4568,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nathalie Morgan</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MBO</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4562,34 +4587,36 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bonne ambiance de travail, possibilité d'évolution interne, bonne entente entre services, reconnaissance du travail accompli</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bon', 'ambiance', 'travail', 'évolution', 'bon', 'service', 'reconnaissance', 'travail']</t>
         </is>
       </c>
     </row>
@@ -4610,55 +4637,55 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jacqui Dakin</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MBO</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>my personal experiences working with site teams and mangers</t>
+          <t>Voir l'évolution qui est faite autant pour le personnel que pour l'outil de travail</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['évolution', 'travail']</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4706,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>FLORENCE PETIT</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>CENTRAL EXEC</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4701,24 +4728,24 @@
         <v>9</v>
       </c>
       <c r="J62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>L'ambiance de travail entre les membres du personnel, la qualité de l'environnement de travail.  Reste un point "noir": celui de la communication avec la direction mais cela ne concerne que moi.</t>
+          <t>très bonne entreprise</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -4727,7 +4754,7 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>['ambiance', 'travail', 'qualité', 'travail', 'communication']</t>
+          <t>['bon', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -4748,12 +4775,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>GUILLAUME LAFERTIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4767,27 +4794,29 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Bonne ambiance de travail, possibilité d'évolution interne, bonne entente entre services, reconnaissance du travail accompli</t>
+          <t>Une ancienneté de 22 ans...
+Si je n'avais pas été bien, et si je n'avais pas cru en l'avenir de la société, je ne serai pas resté aussi longtemps.
+Mais j'ai répondu aux questions en considérant que Moy Park Beef Orléans était l'entreprise. J'aurais mis les mêmes notes en me basant au niveau de la division, mais certainement quelques points de moins en me basant au niveau de MoyPark Limited. Parfois dur de travailler avec le Corporate, hormis la barrière de la langue, nous n'avons pas non plus la même culture, la même façon d'aborder les problèmes, ni de les résoudre.</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4796,7 +4825,7 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>['bon', 'ambiance', 'travail', 'évolution', 'bon', 'service', 'reconnaissance', 'travail']</t>
+          <t>['société', 'entreprise', 'niveau', 'division', 'niveau', 'moypark', 'culture']</t>
         </is>
       </c>
     </row>
@@ -4817,12 +4846,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DOMINIQUE GERON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4836,25 +4865,27 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
-        <v>5</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mon opinion</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -4884,7 +4915,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SANDY CHATELU</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4903,27 +4934,29 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>très bonne entreprise</t>
+          <t>Entreprise de grandeur moyenne ce qui facilite les échanges avec tous les niveaux hiérarchiques. 
+Globalement une bonne entente entre les services ce qui facilite le travail en équipe. 
+La direction est très accessible et sensible au bien être des salariés de l'entreprise.</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -4932,7 +4965,7 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>['bon', 'entreprise']</t>
+          <t>['entreprise', 'niveau', 'bon', 'service', 'travail', 'équipe', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -4953,12 +4986,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>JEAN-PHILIPPE NAUDET</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>HEALTH &amp; SAFETY</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4972,29 +5005,27 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Une ancienneté de 22 ans...
-Si je n'avais pas été bien, et si je n'avais pas cru en l'avenir de la société, je ne serai pas resté aussi longtemps.
-Mais j'ai répondu aux questions en considérant que Moy Park Beef Orléans était l'entreprise. J'aurais mis les mêmes notes en me basant au niveau de la division, mais certainement quelques points de moins en me basant au niveau de MoyPark Limited. Parfois dur de travailler avec le Corporate, hormis la barrière de la langue, nous n'avons pas non plus la même culture, la même façon d'aborder les problèmes, ni de les résoudre.</t>
+          <t>l’engagement des équipes sur la performance de l’entreprise, et oui la cible du zéro accident est atteinte sur 2020</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -5003,7 +5034,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>['société', 'entreprise', 'niveau', 'division', 'niveau', 'moypark', 'culture']</t>
+          <t>['équipe', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -5024,12 +5055,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WILFRIED DUBOST</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5043,27 +5074,23 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Mon opinion</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -5093,12 +5120,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AURELIE FOURNIER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5115,16 +5142,14 @@
         <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Entreprise de grandeur moyenne ce qui facilite les échanges avec tous les niveaux hiérarchiques. 
-Globalement une bonne entente entre les services ce qui facilite le travail en équipe. 
-La direction est très accessible et sensible au bien être des salariés de l'entreprise.</t>
+          <t>Ressenti</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -5143,7 +5168,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>['entreprise', 'niveau', 'bon', 'service', 'travail', 'équipe', 'entreprise']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5164,12 +5189,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>STEPHANE VEDRINES</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HEALTH &amp; SAFETY</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5179,21 +5204,23 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K69" t="n">
         <v>1</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>l’engagement des équipes sur la performance de l’entreprise, et oui la cible du zéro accident est atteinte sur 2020</t>
+          <t>Points positifs: Liberté dans les horaires de travail, 
+Salaire et avantages
+Points négatifs : communication interne à améliorer, entreprise aujourd’hui moins dynamique que pas le passé</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -5212,7 +5239,7 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>['équipe', 'entreprise']</t>
+          <t>['travail', 'communication', 'entreprise', 'dynamique']</t>
         </is>
       </c>
     </row>
@@ -5233,12 +5260,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LAETITIA LALLIER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5252,32 +5279,36 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J70" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Conscient de la "chance" de travailler chez MoyPark Beef Orleans. Entreprise qui donne l'opportunité à ses collaborateurs d'évoluer au sein de l'entreprise. Communication ascendante et descendante franche qui facilite la prise de décision.</t>
+        </is>
+      </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['moypark', 'entreprise', 'entreprise', 'communication']</t>
         </is>
       </c>
     </row>
@@ -5298,12 +5329,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CHRISTINE GARNIER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5317,27 +5348,29 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J71" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Ressenti</t>
+          <t>La démarche d'amélioration continue qui permet de rester performant
+La dynamique de ma hiérarchie, des services qualité et maintenance.
+La reconnaissance de mon travail.</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -5346,7 +5379,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dynamique', 'service', 'qualité', 'reconnaissance', 'travail']</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5400,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ANTOINE MARTIN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5386,34 +5419,36 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>La culture de l'entreprise sur les résultats économiques, sociaux et environnementaux.</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['culture', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -5434,12 +5469,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>KARINE BELLEGO</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5449,33 +5484,31 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J73" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>1</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Points positifs: Liberté dans les horaires de travail, 
-Salaire et avantages
-Points négatifs : communication interne à améliorer, entreprise aujourd’hui moins dynamique que pas le passé</t>
+          <t>avis personnel</t>
         </is>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -5484,7 +5517,7 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>['travail', 'communication', 'entreprise', 'dynamique']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5505,12 +5538,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>GEOFFREY HAMON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5524,36 +5557,36 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J74" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Conscient de la "chance" de travailler chez MoyPark Beef Orleans. Entreprise qui donne l'opportunité à ses collaborateurs d'évoluer au sein de l'entreprise. Communication ascendante et descendante franche qui facilite la prise de décision.</t>
+          <t>Missions, ambiance, Direction.</t>
         </is>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>['moypark', 'entreprise', 'entreprise', 'communication']</t>
+          <t>['ambiance']</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5607,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>CLAIRE CHABANE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5593,29 +5626,27 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K75" t="n">
         <v>2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>La démarche d'amélioration continue qui permet de rester performant
-La dynamique de ma hiérarchie, des services qualité et maintenance.
-La reconnaissance de mon travail.</t>
+          <t>la qualité relationnelle avec ma hiérarchie et mes collègues, la volonté du groupe de se donner les moyens de réussir à maintenir un niveau élevé de qualité de de constante amélioration.</t>
         </is>
       </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -5624,7 +5655,7 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>['dynamique', 'service', 'qualité', 'reconnaissance', 'travail']</t>
+          <t>['qualité', 'niveau', 'qualité']</t>
         </is>
       </c>
     </row>
@@ -5645,12 +5676,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>OLIVIER LORRE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5664,17 +5695,17 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J76" t="n">
         <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>La culture de l'entreprise sur les résultats économiques, sociaux et environnementaux.</t>
+          <t>la sincérité</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -5693,7 +5724,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>['culture', 'entreprise']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5714,12 +5745,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>LAURENT FOUGERON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5736,24 +5767,24 @@
         <v>8</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
         <v>1</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>avis personnel</t>
+          <t>Le travail d'équipe de l'entreprise et l'interaction et la facilité de travailler avec l'ensemble des responsables</t>
         </is>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -5762,7 +5793,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['travail', 'équipe', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -5783,12 +5814,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>STEPHANE RUELLAN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5805,28 +5836,28 @@
         <v>9</v>
       </c>
       <c r="J78" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K78" t="n">
         <v>1</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Missions, ambiance, Direction.</t>
+          <t>Ambiance, soutien de l'encadrement, forte autonomie, progression</t>
         </is>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -5852,12 +5883,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CHRISTOPHE MORVAN</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5867,291 +5898,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I79" t="n">
+        <v>10</v>
+      </c>
+      <c r="J79" t="n">
         <v>9</v>
       </c>
-      <c r="J79" t="n">
-        <v>8</v>
-      </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L79" t="inlineStr">
-        <is>
-          <t>la qualité relationnelle avec ma hiérarchie et mes collègues, la volonté du groupe de se donner les moyens de réussir à maintenir un niveau élevé de qualité de de constante amélioration.</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>['qualité', 'niveau', 'qualité']</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CHRISTINE NAUDET</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>MBO</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>CECILE BLANQUET</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>MBO</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O81" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>REMI MICHALOWSKI</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>MBO</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>9</v>
-      </c>
-      <c r="K82" t="n">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Ambiance, soutien de l'encadrement, forte autonomie, progression</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>['ambiance']</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>MATHIEU PISSOT</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>MBO</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>10</v>
-      </c>
-      <c r="J83" t="n">
-        <v>9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
         <is>
           <t>Ambiance de travail positive
 Ecoute et reconnaissance
@@ -6160,6 +5919,282 @@
 Innovation</t>
         </is>
       </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>['ambiance', 'travail', 'reconnaissance', 'valeur', 'culture', 'client']</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>TECHNICAL</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>MBO</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>8</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Ambiance, Rémunération, Liberté de travail, Intérêt des dossiers, Relation avec le client</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>['ambiance', 'travail', 'relation', 'client']</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>TECHNICAL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>MBO</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Moypark Beef Orléans  est une très bonne entreprise qui cherche constamment à s'améliorer.</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>['bon', 'entreprise']</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>OP - CONV</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>10</v>
+      </c>
+      <c r="J82" t="n">
+        <v>8</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>J'ai travaillé à Pilgrim USA et Mexique, et je peux les comparer avec MoyPark PFFS. En général, je trouve notre division trés efficace et bien organisé malgré la complexité de nos produits et nos processus. J'aime la culture de travail chez nous, et il n'y a pas beaucoup de choses à changer à mon avis. Malhereusement, nous ne sommes pas beaucoup de gens dans la division, et le groupe au UK nous demande beaucoup de choses administratifs. Il est compliqué de donner la même quantité de choses que les grandes usines, avec une équipe de 60 à 100 personnes...</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>fr</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>['moypark', 'division', 'produit', 'culture', 'travail', 'chose', 'division', 'chose', 'chose', 'équipe', 'personne']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Employee</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Other_1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>FINANCE</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>BU</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Iconic</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>10</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Work with a very motivated managers and coleagues</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -6171,12 +6206,12 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>['ambiance', 'travail', 'reconnaissance', 'valeur', 'culture', 'client']</t>
+          <t>['motivated', 'manager']</t>
         </is>
       </c>
     </row>
@@ -6197,17 +6232,17 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SALOME ROZIER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>MBO</t>
+          <t>BU</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -6216,24 +6251,25 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Ambiance, Rémunération, Liberté de travail, Intérêt des dossiers, Relation avec le client</t>
+          <t>Valeurs de l'entreprise : esprit d'équipe, entraide, confiance...
+Savoir-faire : équipes compétentes, la qualité de nos produits...</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
         <v>1</v>
@@ -6245,7 +6281,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>['ambiance', 'travail', 'relation', 'client']</t>
+          <t>['valeur', 'entreprise', 'équipe', 'équipe', 'qualité', 'produit']</t>
         </is>
       </c>
     </row>
@@ -6266,17 +6302,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AURELIE TACHAU</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>MBO</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -6288,14 +6324,14 @@
         <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Moypark Beef Orléans  est une très bonne entreprise qui cherche constamment à s'améliorer.</t>
+          <t>Mon ancienneté dans la société. Et le fait que  Moy park est une grande entreprise qui nous permet d'évoluer sans cesse.</t>
         </is>
       </c>
       <c r="M85" t="n">
@@ -6314,7 +6350,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>['bon', 'entreprise']</t>
+          <t>['société', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -6335,17 +6371,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BARTHELEMY MAJOU</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>MBO</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6354,34 +6390,36 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mes nombreuses années de travail chez Moy Park France</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['année', 'travail']</t>
         </is>
       </c>
     </row>
@@ -6402,55 +6440,55 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Jose IRIDANI CABRERA ARROYO</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BU</t>
+          <t>AVZ</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J87" t="n">
         <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>J'ai travaillé à Pilgrim USA et Mexique, et je peux les comparer avec MoyPark PFFS. En général, je trouve notre division trés efficace et bien organisé malgré la complexité de nos produits et nos processus. J'aime la culture de travail chez nous, et il n'y a pas beaucoup de choses à changer à mon avis. Malhereusement, nous ne sommes pas beaucoup de gens dans la division, et le groupe au UK nous demande beaucoup de choses administratifs. Il est compliqué de donner la même quantité de choses que les grandes usines, avec une équipe de 60 à 100 personnes...</t>
+          <t>my job in the company</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>['moypark', 'division', 'produit', 'culture', 'travail', 'chose', 'division', 'chose', 'chose', 'équipe', 'personne']</t>
+          <t>['job', 'company']</t>
         </is>
       </c>
     </row>
@@ -6471,17 +6509,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>GABRIEL CRAVIEE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>BU</t>
+          <t>AVZ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -6490,27 +6528,27 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Work with a very motivated managers and coleagues</t>
+          <t>good company working for</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -6519,7 +6557,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>['motivated']</t>
+          <t>['company']</t>
         </is>
       </c>
     </row>
@@ -6540,56 +6578,55 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MAXENCE D'HAVELOOSE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>BU</t>
+          <t>AVZ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>9</v>
       </c>
       <c r="J89" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Valeurs de l'entreprise : esprit d'équipe, entraide, confiance...
-Savoir-faire : équipes compétentes, la qualité de nos produits...</t>
+          <t>Wat mij motiveert is dat AVZ nu echt gezien word als Moypark, dat is te zien aan de betrokkenheid, en steeds meer ivesteringen die wij mogen doen om volledig mee te kunnen doen aan bijvoorbeeld operational Excellence en being the best pragramma's. Wat ook motiveert, is de wil en uitdaging om door te blijven groeien en steeds meer vollumes te kunnen doen. Over heel Moypark kan ik zeggen een mooi bedrijf die op vele verschillende markten actief is, staat voor kwaliteit en is begaan met zijn personeel en de veiligheid daarvan, en waar voedselveiligheid hoog in het vaandel staat.</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>nl</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>['valeur', 'entreprise', 'équipe', 'équipe', 'qualité', 'produit']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6610,34 +6647,36 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Isabelle TILMANT</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>AVZ</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J90" t="n">
-        <v>5</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Business is growing last view years a lotbut also knowledge, the manner of management must grow with the growth of the total company. In my opinion this is lagging behind.</t>
         </is>
       </c>
       <c r="M90" t="n">
@@ -6656,7 +6695,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['company']</t>
         </is>
       </c>
     </row>
@@ -6677,55 +6716,55 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Séverine BRAS</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>AVZ</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>8</v>
       </c>
       <c r="J91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>mes nombreuses années de travail chez Moy Park France</t>
+          <t>passing on too much to others and to many uncertainties</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>['année', 'travail']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -6746,12 +6785,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Danny Low</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6761,29 +6800,31 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J92" t="n">
-        <v>5</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Nice colleagues and teams, good ethics, sound and good values, vision and mission.</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -6792,7 +6833,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['team']</t>
         </is>
       </c>
     </row>
@@ -6813,12 +6854,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Anita Mak</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6828,21 +6869,21 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>8</v>
       </c>
       <c r="J93" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>my job in the company</t>
+          <t>I am happy and have good contacts with my colleagues both locally and internationally. I like the international character of the company. The combination of a small company in a large concern has many advantages and also offers many possibilities.</t>
         </is>
       </c>
       <c r="M93" t="n">
@@ -6861,7 +6902,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>['company']</t>
+          <t>['happy', 'company', 'company']</t>
         </is>
       </c>
     </row>
@@ -6882,12 +6923,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Guido van Loveren</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6897,31 +6938,31 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>good company working for</t>
+          <t>a lot of challenges make the work interesting</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -6930,7 +6971,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>['company']</t>
+          <t>['challenge']</t>
         </is>
       </c>
     </row>
@@ -6951,26 +6992,26 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Patrick Broersen</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>CENTRAL EXEC</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>BU</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J95" t="n">
         <v>8</v>
@@ -6980,7 +7021,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Wat mij motiveert is dat AVZ nu echt gezien word als Moypark, dat is te zien aan de betrokkenheid, en steeds meer ivesteringen die wij mogen doen om volledig mee te kunnen doen aan bijvoorbeeld operational Excellence en being the best pragramma's. Wat ook motiveert, is de wil en uitdaging om door te blijven groeien en steeds meer vollumes te kunnen doen. Over heel Moypark kan ik zeggen een mooi bedrijf die op vele verschillende markten actief is, staat voor kwaliteit en is begaan met zijn personeel en de veiligheid daarvan, en waar voedselveiligheid hoog in het vaandel staat.</t>
+          <t>Trés content de faire partie de cette entreprise</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -6990,16 +7031,16 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>nl</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['entreprise']</t>
         </is>
       </c>
     </row>
@@ -7020,53 +7061,56 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Tim Schmidt</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J96" t="n">
-        <v>5</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>bon esprit d'équipe au sein du service mais aussi inter-services.
+Personnellement j'apprécie la confiance que l'on a eu en moi et les possibilités d'évolution interne que j'ai eu.</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['bon', 'équipe', 'service', 'évolution']</t>
         </is>
       </c>
     </row>
@@ -7087,17 +7131,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Marc Langedijk</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -7106,36 +7150,36 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J97" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Business is growing last view years a lotbut also knowledge, the manner of management must grow with the growth of the total company. In my opinion this is lagging behind.</t>
+          <t>L'expertise des équipes , la qualité des produits, l'ambiance générale</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>['company']</t>
+          <t>['équipe', 'qualité', 'produit', 'ambiance']</t>
         </is>
       </c>
     </row>
@@ -7156,55 +7200,55 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Maarten Langenveld</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>HENIN BEAUMONT</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I98" t="n">
+        <v>10</v>
+      </c>
+      <c r="J98" t="n">
         <v>8</v>
       </c>
-      <c r="J98" t="n">
-        <v>6</v>
-      </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>passing on too much to others and to many uncertainties</t>
+          <t>après tant d'années chez MOY PARK je ne peux que constater mon épanouissement professionnel au sein d'une équipe ouverte, entrainante, particulièrement humaine et tournée vers les défis et la nouveauté.</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['année', 'équipe']</t>
         </is>
       </c>
     </row>
@@ -7225,43 +7269,43 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Pietrik van der Weij</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>TECHNICAL</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>Transactional</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J99" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K99" t="n">
         <v>1</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Nice colleagues and teams, good ethics, sound and good values, vision and mission.</t>
+          <t>I believe that Moy Park is very focused on our values and vision and this is evident at all levels of the company.  They are transparent and honest in all queries.  I do feel that there is a teamwork approach, however, this need improvement in some divisions of the group.</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -7273,7 +7317,7 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['company', 'division']</t>
         </is>
       </c>
     </row>
@@ -7294,43 +7338,43 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Thea van Velzen</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FINANCE</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J100" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>I am happy and have good contacts with my colleagues both locally and internationally. I like the international character of the company. The combination of a small company in a large concern has many advantages and also offers many possibilities.</t>
+          <t>The very different systems (sample requests, use of Excel forms, costings etc.) can be very frustrating across BUs, access to people to help with tasks is often challenging too - specifications, costings, planning...</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O100" t="n">
         <v>0</v>
@@ -7342,7 +7386,7 @@
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>['company', 'company']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7363,7 +7407,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ahjo Maarsen</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -7373,7 +7417,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>AVZ</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -7382,7 +7426,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
         <v>5</v>
@@ -7392,7 +7436,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>a lot of challenges make the work interesting</t>
+          <t>I enjoy working for Moypark and always have opportunities to develop my skills and progress within the company.</t>
         </is>
       </c>
       <c r="M101" t="n">
@@ -7411,7 +7455,7 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>['challenge']</t>
+          <t>['company']</t>
         </is>
       </c>
     </row>
@@ -7432,22 +7476,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Anthony WELLINGTON</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>CENTRAL EXEC</t>
+          <t>ENGINEERING</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>BU</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -7461,7 +7505,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Trés content de faire partie de cette entreprise</t>
+          <t>I wholeheartedly believe in what the company is trying to achieve, the challenges it is facing, and I want to be part of the team to help &amp; support driving this forward</t>
         </is>
       </c>
       <c r="M102" t="n">
@@ -7475,12 +7519,12 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>['entreprise']</t>
+          <t>['company', 'challenge', 'team']</t>
         </is>
       </c>
     </row>
@@ -7501,17 +7545,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ebtissam BEKKOUCHE</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>HEALTH &amp; SAFETY</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7520,7 +7564,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J103" t="n">
         <v>8</v>
@@ -7530,27 +7574,26 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>bon esprit d'équipe au sein du service mais aussi inter-services.
-Personnellement j'apprécie la confiance que l'on a eu en moi et les possibilités d'évolution interne que j'ai eu.</t>
+          <t>Being new to the Company, it's so great having support from management of all levels and everyone paying an interest in my ideas. It may be that I've moved up a role in my career... but regardless the support and communication for my role is great.</t>
         </is>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>['bon', 'équipe', 'service', 'évolution']</t>
+          <t>['great', 'support', 'role', 'support', 'communication', 'role', 'great']</t>
         </is>
       </c>
     </row>
@@ -7571,36 +7614,36 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Pierre André DESBOIS</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J104" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>L'expertise des équipes , la qualité des produits, l'ambiance générale</t>
+          <t>Moypark are very clear in their ways of working which makes it a very structured place to work.  As a smaller business within the whole business, sometimes the structure can be restricting, resulting in a slower pace than I have experienced before. The business is very clearly focused on people development and this support is just right for me at this moment in my career.</t>
         </is>
       </c>
       <c r="M104" t="n">
@@ -7614,12 +7657,12 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>['équipe', 'qualité', 'produit', 'ambiance']</t>
+          <t>['support']</t>
         </is>
       </c>
     </row>
@@ -7640,55 +7683,55 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Franck GUILLAUME</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>HENIN BEAUMONT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I105" t="n">
+        <v>9</v>
+      </c>
+      <c r="J105" t="n">
         <v>10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>8</v>
       </c>
       <c r="K105" t="n">
         <v>2</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>après tant d'années chez MOY PARK je ne peux que constater mon épanouissement professionnel au sein d'une équipe ouverte, entrainante, particulièrement humaine et tournée vers les défis et la nouveauté.</t>
+          <t>I like that moy park has values and cares about their staff . I feel i am able to grow and focus on my key strengths and weaknesses within my job. No day is the same and love working for moy park. This is the longest job i have had within the food industry and couldnt thank the business enough for the great opportunities i have been given and key strength/ subject areas i have enjoyed working on i..e. Plant protein being a  big project area for me. So thank you .</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
         <v>1</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>fr</t>
+          <t>en</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>['année', 'équipe']</t>
+          <t>['able', 'key', 'job', 'day', 'long', 'job', 'great', 'key', 'area', 'area']</t>
         </is>
       </c>
     </row>
@@ -7709,12 +7752,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Joanne Warmington</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -7724,31 +7767,31 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J106" t="n">
         <v>6</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>I believe that Moy Park is very focused on our values and vision and this is evident at all levels of the company.  They are transparent and honest in all queries.  I do feel that there is a teamwork approach, however, this need improvement in some divisions of the group.</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N106" t="n">
         <v>-1</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -7757,7 +7800,7 @@
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>['company', 'division']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7778,12 +7821,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Kurt Hilder</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -7793,31 +7836,34 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>10</v>
       </c>
       <c r="J107" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>The very different systems (sample requests, use of Excel forms, costings etc.) can be very frustrating across BUs, access to people to help with tasks is often challenging too - specifications, costings, planning...</t>
+          <t>Very happy in the work place
+Very Supportive Manager
+Great NPD team to work with
+Friendly and great working environment from all departments</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -7826,7 +7872,7 @@
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['happy', 'supportive', 'manager', 'team', 'great', 'environment']</t>
         </is>
       </c>
     </row>
@@ -7847,12 +7893,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Devon Jones</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>COMMERCIAL</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -7862,31 +7908,31 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Transactional</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>7</v>
       </c>
       <c r="J108" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>I enjoy working for Moypark and always have opportunities to develop my skills and progress within the company.</t>
+          <t>The  people that I work with both  on site  and across the division  a very supportive . The demand  and volume of work are high  but  people are supportive to be successful</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
       <c r="N108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -7895,7 +7941,7 @@
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>['company']</t>
+          <t>['division', 'supportive', 'supportive']</t>
         </is>
       </c>
     </row>
@@ -7916,12 +7962,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Andy Gordon</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7931,31 +7977,31 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J109" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>I wholeheartedly believe in what the company is trying to achieve, the challenges it is facing, and I want to be part of the team to help &amp; support driving this forward</t>
+          <t>The opportunity to drive improvements within the factory can often be hindered by red tape &amp; bureaucracy which reduces the ability to react swiftly. Despite this frustration the overall work experience is very much a positive one, working within a safe environment with a team keen to improve &amp; prepared to adapt to change.</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -7964,7 +8010,7 @@
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>['company', 'challenge']</t>
+          <t>['environment', 'team']</t>
         </is>
       </c>
     </row>
@@ -7985,12 +8031,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Andy Robinson</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>OP - CONV</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -8004,15 +8050,17 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Good work life balance and generally good atmosphere at work. Lack of career and skills development. Lack of communication and leadership from Senior management team (except from my current line manager)</t>
         </is>
       </c>
       <c r="M110" t="n">
@@ -8031,7 +8079,7 @@
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['communication', 'team', 'manager']</t>
         </is>
       </c>
     </row>
@@ -8052,12 +8100,12 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Paul Scott</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ENGINEERING</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8071,25 +8119,27 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J111" t="n">
-        <v>5</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>supportive and motivating company to work for</t>
         </is>
       </c>
       <c r="M111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -8098,7 +8148,7 @@
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['supportive', 'company']</t>
         </is>
       </c>
     </row>
@@ -8119,12 +8169,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Lois Stevens</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>HEALTH &amp; SAFETY</t>
+          <t>SUPPLY CHAIN</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -8148,7 +8198,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Being new to the Company, it's so great having support from management of all levels and everyone paying an interest in my ideas. It may be that I've moved up a role in my career... but regardless the support and communication for my role is great.</t>
+          <t>Our company has shown through the current pandemic how resilient we are. Last year we had serious problems but were still able to "tick over" during the worst period of time. Since then our volumes have risen and despite the difficulties both KRF sites have been working as safely as possible.</t>
         </is>
       </c>
       <c r="M112" t="n">
@@ -8167,7 +8217,7 @@
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>['great', 'support', 'role', 'support', 'communication', 'role', 'great']</t>
+          <t>['company', 'able']</t>
         </is>
       </c>
     </row>
@@ -8188,12 +8238,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Dyella Cross</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8207,22 +8257,26 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J113" t="n">
-        <v>5</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Semi-flexible working hours - based on workload/task requirements.
+Good career development opportunities.
+Interesting products.</t>
         </is>
       </c>
       <c r="M113" t="n">
         <v>-1</v>
       </c>
       <c r="N113" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O113" t="n">
         <v>-1</v>
@@ -8255,12 +8309,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sarah SCHAFER</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8270,21 +8324,21 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J114" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>Moypark are very clear in their ways of working which makes it a very structured place to work.  As a smaller business within the whole business, sometimes the structure can be restricting, resulting in a slower pace than I have experienced before. The business is very clearly focused on people development and this support is just right for me at this moment in my career.</t>
+          <t>In overall I am happy to work at KRF and would recommend it to anyone but there is always room for improvement. There is a lot of customers at KRF but expectation of every customer and customer contact is that their are priority which is not always possible to satisfy.</t>
         </is>
       </c>
       <c r="M114" t="n">
@@ -8303,7 +8357,7 @@
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>['support']</t>
+          <t>['happy']</t>
         </is>
       </c>
     </row>
@@ -8324,12 +8378,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sophie Seddon</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8339,29 +8393,31 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J115" t="n">
-        <v>5</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>I like what i do, i like people i work with, money could be better</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P115" t="inlineStr">
         <is>
@@ -8391,12 +8447,12 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rachel Carpenter</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8406,25 +8462,25 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J116" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>I find some of the processes very long winded with too many people involved</t>
         </is>
       </c>
       <c r="M116" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
         <v>-1</v>
@@ -8460,12 +8516,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Kerry Ince</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8475,19 +8531,21 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
+          <t>Iconic</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J117" t="n">
-        <v>5</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>HR policies and Communication</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -8506,7 +8564,7 @@
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['communication']</t>
         </is>
       </c>
     </row>
@@ -8527,12 +8585,12 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Malgorzata Szok</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>NPD</t>
+          <t>FINANCE</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -8546,25 +8604,27 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J118" t="n">
-        <v>5</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Workload pressures had a negative impact on my satisfaction with mu job.</t>
         </is>
       </c>
       <c r="M118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
         <v>-1</v>
       </c>
       <c r="O118" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P118" t="inlineStr">
         <is>
@@ -8573,7 +8633,7 @@
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['satisfaction', 'job']</t>
         </is>
       </c>
     </row>
@@ -8594,12 +8654,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Frank Mulhall</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8623,7 +8683,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>The  people that I work with both  on site  and across the division  a very supportive . The demand  and volume of work are high  but  people are supportive to be successful</t>
+          <t>Not a bad place to work.</t>
         </is>
       </c>
       <c r="M119" t="n">
@@ -8642,7 +8702,7 @@
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>['division']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -8663,17 +8723,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Paul Jones</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>HEALTH &amp; SAFETY</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -8682,29 +8742,31 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J120" t="n">
-        <v>5</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Soutient de ma direction et pluralité des missions à mener. Autonomie accordé par l'encadrement</t>
         </is>
       </c>
       <c r="M120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q120" t="inlineStr">
@@ -8730,38 +8792,40 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Phillip Martin</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J121" t="n">
         <v>5</v>
       </c>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Epanouissement personnel, stress</t>
         </is>
       </c>
       <c r="M121" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
         <v>-1</v>
@@ -8771,7 +8835,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -8797,40 +8861,40 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Alice Furtado</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>NPD</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Iconic</t>
+          <t>TDI - Taylor Made / Differenciated / Innovative</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J122" t="n">
         <v>6</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>Good work life balance and generally good atmosphere at work. Lack of career and skills development. Lack of communication and leadership from Senior management team (except from my current line manager)</t>
+          <t>proximité</t>
         </is>
       </c>
       <c r="M122" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N122" t="n">
         <v>-1</v>
@@ -8840,12 +8904,12 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>['communication']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -8866,7 +8930,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Rachael Wilford</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -8876,7 +8940,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -8885,19 +8949,21 @@
         </is>
       </c>
       <c r="I123" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J123" t="n">
-        <v>5</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>expérience</t>
         </is>
       </c>
       <c r="M123" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
         <v>-1</v>
@@ -8907,7 +8973,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -8933,17 +8999,17 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Gabriela Lopatka</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>OP - CONV</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8952,34 +9018,36 @@
         </is>
       </c>
       <c r="I124" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J124" t="n">
-        <v>5</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>mes conditions de travail, la situation de l'entreprise, l'esprit de la compagnie, expérience dans d'autres entreprises</t>
         </is>
       </c>
       <c r="M124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['travail', 'entreprise', 'entreprise']</t>
         </is>
       </c>
     </row>
@@ -9000,17 +9068,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Daniella Forway</t>
+          <t>Other_1</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>SUPPLY CHAIN</t>
+          <t>TECHNICAL</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>MARQUISE</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -9019,1134 +9087,36 @@
         </is>
       </c>
       <c r="I125" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J125" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>supportive and motivating company to work for</t>
+          <t>Mon travail</t>
         </is>
       </c>
       <c r="M125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>fr</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>['company']</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D126" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Alex Toma</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>SUPPLY CHAIN</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>10</v>
-      </c>
-      <c r="J126" t="n">
-        <v>8</v>
-      </c>
-      <c r="K126" t="n">
-        <v>2</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>Our company has shown through the current pandemic how resilient we are. Last year we had serious problems but were still able to "tick over" during the worst period of time. Since then our volumes have risen and despite the difficulties both KRF sites have been working as safely as possible.</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1</v>
-      </c>
-      <c r="P126" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>['company']</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D127" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Beth Gretton</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>6</v>
-      </c>
-      <c r="J127" t="n">
-        <v>7</v>
-      </c>
-      <c r="K127" t="n">
-        <v>1</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>Semi-flexible working hours - based on workload/task requirements.
-Good career development opportunities.
-Interesting products.</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P127" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C128" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D128" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Ewa Urbanska</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>8</v>
-      </c>
-      <c r="K128" t="n">
-        <v>1</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>In overall I am happy to work at KRF and would recommend it to anyone but there is always room for improvement. There is a lot of customers at KRF but expectation of every customer and customer contact is that their are priority which is not always possible to satisfy.</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C129" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D129" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Jane Law</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>5</v>
-      </c>
-      <c r="J129" t="n">
-        <v>5</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N129" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O129" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P129" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C130" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D130" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Gorzata Staszczyk</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7</v>
-      </c>
-      <c r="K130" t="n">
-        <v>1</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>I like what i do, i like people i work with, money could be better</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C131" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D131" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Tim Campbell</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>8</v>
-      </c>
-      <c r="J131" t="n">
-        <v>4</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>I find some of the processes very long winded with too many people involved</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O131" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P131" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C132" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Dean Quantrill</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>FINANCE</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>6</v>
-      </c>
-      <c r="J132" t="n">
-        <v>3</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>HR policies and Communication</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O132" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>['communication']</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C133" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Stuart Nimmo</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>FINANCE</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I133" t="n">
-        <v>8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>6</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Workload pressures had a negative impact on my satisfaction with mu job.</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>['satisfaction']</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Adam Lane</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>IS</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I134" t="n">
-        <v>5</v>
-      </c>
-      <c r="J134" t="n">
-        <v>5</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O134" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Benjamin RUQUET</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>HEALTH &amp; SAFETY</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I135" t="n">
-        <v>8</v>
-      </c>
-      <c r="J135" t="n">
-        <v>7</v>
-      </c>
-      <c r="K135" t="n">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Soutient de ma direction et pluralité des missions à mener. Autonomie accordé par l'encadrement</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>0</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C136" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>Maryline DELANNOY</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>HR</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>5</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O136" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C137" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>Mickael BOULY</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>NPD</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
-        </is>
-      </c>
-      <c r="I137" t="n">
-        <v>8</v>
-      </c>
-      <c r="J137" t="n">
-        <v>5</v>
-      </c>
-      <c r="K137" t="n">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Epanouissement personnel, stress</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>0</v>
-      </c>
-      <c r="N137" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O137" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>Laetitia LESAGE</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>NPD</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>TDI - Taylor Made / Differenciated / Innovative</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>7</v>
-      </c>
-      <c r="J138" t="n">
-        <v>6</v>
-      </c>
-      <c r="K138" t="n">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>proximité</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>0</v>
-      </c>
-      <c r="N138" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O138" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C139" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Manuel COEUGNET</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>OP - CONV</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>7</v>
-      </c>
-      <c r="J139" t="n">
-        <v>6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>expérience</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>0</v>
-      </c>
-      <c r="N139" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O139" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Anne Laure GOUDAL</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I140" t="n">
-        <v>7</v>
-      </c>
-      <c r="J140" t="n">
-        <v>7</v>
-      </c>
-      <c r="K140" t="n">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>mes conditions de travail, la situation de l'entreprise, l'esprit de la compagnie, expérience dans d'autres entreprises</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>0</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>['travail', 'entreprise', 'entreprise']</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Employee</t>
-        </is>
-      </c>
-      <c r="C141" s="2" t="n">
-        <v>44287</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>Mélanie VASSEUR</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>TECHNICAL</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>MARQUISE</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Iconic</t>
-        </is>
-      </c>
-      <c r="I141" t="n">
-        <v>5</v>
-      </c>
-      <c r="J141" t="n">
-        <v>5</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="O141" t="n">
-        <v>-1</v>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>[]</t>
+          <t>['travail']</t>
         </is>
       </c>
     </row>
